--- a/xlsx/注意_intext.xlsx
+++ b/xlsx/注意_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="823">
   <si>
     <t>注意</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -119,43 +119,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -179,43 +179,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
@@ -413,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
@@ -479,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -503,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>知覺</t>
+    <t>知觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
   </si>
   <si>
-    <t>企劃</t>
+    <t>企划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>解決問題</t>
+    <t>解决问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
   </si>
   <si>
-    <t>費尼斯·蓋吉</t>
+    <t>费尼斯·盖吉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
   </si>
   <si>
-    <t>亨利·莫萊森</t>
+    <t>亨利·莫莱森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>斯特魯普效應</t>
+    <t>斯特鲁普效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>魏氏智力測驗</t>
+    <t>魏氏智力测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
@@ -743,21 +743,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
   </si>
   <si>
-    <t>認知</t>
+    <t>认知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A7%89</t>
   </si>
   <si>
-    <t>知觉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B0%E5%BF%86</t>
   </si>
   <si>
-    <t>记忆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%BB%AA</t>
   </si>
   <si>
@@ -833,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F%E5%8A%9B%E4%B8%8D%E8%B6%B3%E9%81%8E%E5%8B%95%E7%97%87</t>
   </si>
   <si>
-    <t>注意力不足過動症</t>
+    <t>注意力不足过动症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F%E5%B9%BF%E5%BA%A6</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E9%A1%8D%E8%91%89%E7%9A%AE%E8%B3%AA</t>
   </si>
   <si>
-    <t>前額葉皮質</t>
+    <t>前额叶皮质</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Binding_problem</t>
@@ -923,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%8C%84</t>
   </si>
   <si>
-    <t>登錄</t>
+    <t>登录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF</t>
   </si>
   <si>
-    <t>邏輯</t>
+    <t>逻辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E7%90%86</t>
@@ -971,19 +965,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9C%9F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>中期記憶</t>
+    <t>中期记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>長期記憶</t>
+    <t>长期记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%84%8F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>語意記憶</t>
+    <t>语意记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A7%89%E8%AE%B0%E5%BF%86</t>
@@ -1001,25 +995,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>語音</t>
+    <t>语音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E9%9F%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>語音學</t>
+    <t>语音学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>語法</t>
+    <t>语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E7%BF%92%E5%BE%97</t>
   </si>
   <si>
-    <t>語言習得</t>
+    <t>语言习得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E6%95%99%E5%AD%A6</t>
@@ -1031,13 +1025,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%93%8D%E7%B8%B1%E8%A1%93</t>
   </si>
   <si>
-    <t>心理操縱術</t>
+    <t>心理操纵术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%BC%BA</t>
@@ -1049,19 +1040,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%84%E8%B3%82</t>
   </si>
   <si>
-    <t>賄賂</t>
+    <t>贿赂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>魅力攻勢</t>
+    <t>魅力攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E6%80%A7%E8%AA%98%E6%8B%90</t>
   </si>
   <si>
-    <t>兒童性誘拐</t>
+    <t>儿童性诱拐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Flattery</t>
@@ -1073,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9</t>
   </si>
   <si>
-    <t>禮物</t>
+    <t>礼物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ingratiation</t>
@@ -1109,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%9A%E6%B7%BA%E7%9A%84%E9%AD%85%E5%8A%9B</t>
   </si>
   <si>
-    <t>膚淺的魅力</t>
+    <t>肤浅的魅力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%85%88%E6%82%B2</t>
@@ -1121,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%A4%E6%80%92</t>
   </si>
   <si>
-    <t>憤怒</t>
+    <t>愤怒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E6%9A%97%E6%AE%BA</t>
   </si>
   <si>
-    <t>人格暗殺</t>
+    <t>人格暗杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%AD</t>
@@ -1139,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F%E6%95%B2%E8%A9%90</t>
   </si>
   <si>
-    <t>情感敲詐</t>
+    <t>情感敲诈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fear_mongering</t>
@@ -1163,13 +1154,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E8%B2%AC</t>
   </si>
   <si>
-    <t>罪責</t>
+    <t>罪责</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E5%9A%87</t>
   </si>
   <si>
-    <t>恐嚇</t>
+    <t>恐吓</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nagging</t>
@@ -1181,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B9%E6%AF%9B%E6%B1%82%E7%96%B5%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>吹毛求疵的批評</t>
+    <t>吹毛求疵的批评</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Passive-aggressive_behavior</t>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>髒話</t>
+    <t>脏话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E5%88%B6</t>
@@ -1241,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B7%E6%93%BE</t>
   </si>
   <si>
-    <t>騷擾</t>
+    <t>骚扰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Victim_blaming</t>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%8B%95%E9%96%80%E6%9F%B1</t>
   </si>
   <si>
-    <t>挪動門柱</t>
+    <t>挪动门柱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pride-and-ego_down</t>
@@ -1409,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BE%E9%9A%A8</t>
   </si>
   <si>
-    <t>尾隨</t>
+    <t>尾随</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%84%8F%E8%BD%AF%E4%BB%B6</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E8%99%9B%E5%81%BD%E6%A8%99%E7%A4%BA</t>
   </si>
   <si>
-    <t>商品虛偽標示</t>
+    <t>商品虚伪标示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E5%87%8C</t>
@@ -1523,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>推銷</t>
+    <t>推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%BD%AA%E7%BE%94%E7%BE%8A</t>
@@ -1535,13 +1526,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A5%E6%84%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>恥感文化</t>
+    <t>耻感文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B9%E9%BB%91%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>抹黑運動</t>
+    <t>抹黑运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1553,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8C%96%E5%A6%9D%E5%B8%AB</t>
   </si>
   <si>
-    <t>政治化妝師</t>
+    <t>政治化妆师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Whispering_campaign</t>
@@ -1601,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%AC%E8%AB%96%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>謬論列表</t>
+    <t>谬论列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E8%9D%8E%E7%BE%8E%E4%BA%BA</t>
@@ -1625,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E5%8A%87%E5%8C%96%E4%BA%BA%E6%A0%BC%E9%81%95%E5%B8%B8</t>
   </si>
   <si>
-    <t>戲劇化人格違常</t>
+    <t>戏剧化人格违常</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%B1%A1%E7%AE%A1%E7%90%86</t>
@@ -1643,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%80</t>
   </si>
   <si>
-    <t>自戀</t>
+    <t>自恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Narcissistic_personality_disorder</t>
@@ -1667,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%A3</t>
   </si>
   <si>
-    <t>人氣</t>
+    <t>人气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E5%B0%84</t>
@@ -1679,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%B8%E6%A8%A1%E5%BC%8F_(%E7%8A%AF%E7%BD%AA%E5%AD%B8)</t>
   </si>
   <si>
-    <t>精神病學模式 (犯罪學)</t>
+    <t>精神病学模式 (犯罪学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B</t>
@@ -1757,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>視覺記憶</t>
+    <t>视觉记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%87%E7%9A%84%E6%95%B0%E5%AD%97%EF%BC%9A7%C2%B12</t>
@@ -1769,9 +1760,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%9C%9F%E8%AE%B0%E5%BF%86</t>
   </si>
   <si>
-    <t>长期记忆</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Active_recall</t>
   </si>
   <si>
@@ -1787,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%A1%AF%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>外顯記憶</t>
+    <t>外显记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%8A%82%E8%AE%B0%E5%BF%86</t>
@@ -1835,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BA%8F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>程序記憶</t>
+    <t>程序记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E5%AD%A6%E4%B9%A0</t>
@@ -1865,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%86%B6%E7%97%87</t>
   </si>
   <si>
-    <t>失憶症</t>
+    <t>失忆症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E8%A1%8C%E6%80%A7%E9%81%97%E5%BF%98%E7%97%87</t>
@@ -1895,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E8%A1%8C%E6%80%A7%E5%A4%B1%E6%86%B6%E7%97%87</t>
   </si>
   <si>
-    <t>逆行性失憶症</t>
+    <t>逆行性失忆症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transient_global_amnesia</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E6%93%BE%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>干擾理論</t>
+    <t>干扰理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Memory_inhibition</t>
@@ -1943,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%8F%96%E5%BC%95%E7%99%BC%E9%81%BA%E5%BF%98</t>
   </si>
   <si>
-    <t>提取引發遺忘</t>
+    <t>提取引发遗忘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Selective_amnesia</t>
@@ -1967,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>假記憶</t>
+    <t>假记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%A7%81%E4%B9%8B%E6%98%8E%E5%81%8F%E8%AF%AF</t>
@@ -2015,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E8%96%A9%E7%A7%91%E5%A4%AB%E6%B0%8F%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>科爾薩科夫氏症候群</t>
+    <t>科尔萨科夫氏症候群</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art_of_memory</t>
@@ -2087,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E5%9B%9E%E6%86%B6</t>
   </si>
   <si>
-    <t>集體回憶</t>
+    <t>集体回忆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural_memory</t>
@@ -2231,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E7%99%BC_(%E5%BF%83%E7%90%86%E5%AD%B8)</t>
   </si>
   <si>
-    <t>促發 (心理學)</t>
+    <t>促发 (心理学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intertrial_priming</t>
@@ -2453,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%A0%B9%E5%B7%9D%E9%80%B2</t>
   </si>
   <si>
-    <t>利根川進</t>
+    <t>利根川进</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anne_Treisman</t>
@@ -2465,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%C2%B7%E5%9C%96%E5%A8%81</t>
   </si>
   <si>
-    <t>安道爾·圖威</t>
+    <t>安道尔·图威</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robert_Stickgold</t>
@@ -2483,7 +2471,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2495,7 +2483,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6375,7 +6363,7 @@
         <v>243</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6401,10 +6389,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="G123" t="n">
         <v>50</v>
@@ -6430,10 +6418,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6459,10 +6447,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6488,10 +6476,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6517,10 +6505,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6546,10 +6534,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -6575,10 +6563,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6604,10 +6592,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6633,10 +6621,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6662,10 +6650,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6691,10 +6679,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6720,10 +6708,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>18</v>
@@ -6749,10 +6737,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6778,10 +6766,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6807,10 +6795,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6836,10 +6824,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6865,10 +6853,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6894,10 +6882,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6923,10 +6911,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6952,10 +6940,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6981,10 +6969,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7010,10 +6998,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7039,10 +7027,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7068,10 +7056,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7097,10 +7085,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7126,10 +7114,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7155,10 +7143,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7213,10 +7201,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7242,10 +7230,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7271,10 +7259,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7300,10 +7288,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7329,10 +7317,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7358,10 +7346,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7387,10 +7375,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7416,10 +7404,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7445,10 +7433,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7474,10 +7462,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7503,10 +7491,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7532,10 +7520,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7561,10 +7549,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7590,10 +7578,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7619,10 +7607,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7648,10 +7636,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7677,10 +7665,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7706,10 +7694,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7735,10 +7723,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7764,10 +7752,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="G170" t="n">
         <v>63</v>
@@ -7793,10 +7781,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7822,10 +7810,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7851,10 +7839,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7880,10 +7868,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7909,10 +7897,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7938,10 +7926,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7967,10 +7955,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7996,10 +7984,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8025,10 +8013,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8054,10 +8042,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8083,10 +8071,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8112,10 +8100,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8141,10 +8129,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8170,10 +8158,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8199,10 +8187,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8228,10 +8216,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8257,10 +8245,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8286,10 +8274,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8315,10 +8303,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8344,10 +8332,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8373,10 +8361,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8402,10 +8390,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8431,10 +8419,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8460,10 +8448,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8489,10 +8477,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8518,10 +8506,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8547,10 +8535,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8576,10 +8564,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8605,10 +8593,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8634,10 +8622,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8663,10 +8651,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8692,10 +8680,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8721,10 +8709,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8750,10 +8738,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8779,10 +8767,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8808,10 +8796,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8837,10 +8825,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8866,10 +8854,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8895,10 +8883,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8924,10 +8912,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8953,10 +8941,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8982,10 +8970,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9011,10 +8999,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9040,10 +9028,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9069,10 +9057,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9098,10 +9086,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9127,10 +9115,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9156,10 +9144,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9185,10 +9173,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9214,10 +9202,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9243,10 +9231,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9272,10 +9260,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9301,10 +9289,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9330,10 +9318,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9359,10 +9347,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9388,10 +9376,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9417,10 +9405,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9446,10 +9434,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9475,10 +9463,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9504,10 +9492,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9533,10 +9521,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9562,10 +9550,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9591,10 +9579,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9620,10 +9608,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9649,10 +9637,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9678,10 +9666,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9707,10 +9695,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9736,10 +9724,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9765,10 +9753,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9794,10 +9782,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9823,10 +9811,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9852,10 +9840,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9881,10 +9869,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9910,10 +9898,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9939,10 +9927,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9968,10 +9956,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9997,10 +9985,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10026,10 +10014,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10055,10 +10043,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10084,10 +10072,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10113,10 +10101,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10142,10 +10130,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10171,10 +10159,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10200,10 +10188,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10229,10 +10217,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10258,10 +10246,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10287,10 +10275,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10316,10 +10304,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10345,10 +10333,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10374,10 +10362,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10403,10 +10391,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10432,10 +10420,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10461,10 +10449,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10490,10 +10478,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10519,10 +10507,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10548,10 +10536,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10577,10 +10565,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10606,10 +10594,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10635,10 +10623,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10664,10 +10652,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10693,10 +10681,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10722,10 +10710,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10751,10 +10739,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10780,10 +10768,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10809,10 +10797,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10838,10 +10826,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10867,10 +10855,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10896,10 +10884,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10925,10 +10913,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10954,10 +10942,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10983,10 +10971,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11012,10 +11000,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11041,10 +11029,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11070,10 +11058,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11099,10 +11087,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11128,10 +11116,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11157,10 +11145,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11186,10 +11174,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11215,10 +11203,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11244,10 +11232,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11273,10 +11261,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -11302,10 +11290,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F292" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11331,10 +11319,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F293" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11360,10 +11348,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F294" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11389,10 +11377,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F295" t="s">
-        <v>584</v>
+        <v>318</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11418,10 +11406,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F296" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11447,10 +11435,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F297" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11476,10 +11464,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F298" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G298" t="n">
         <v>7</v>
@@ -11505,10 +11493,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11534,10 +11522,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11563,10 +11551,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11592,10 +11580,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F302" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11621,10 +11609,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F303" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G303" t="n">
         <v>10</v>
@@ -11650,10 +11638,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F304" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11679,10 +11667,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11708,10 +11696,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F306" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11737,10 +11725,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F307" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11766,10 +11754,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F308" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11795,10 +11783,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F309" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11824,10 +11812,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F310" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G310" t="n">
         <v>5</v>
@@ -11853,10 +11841,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F311" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11882,10 +11870,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F312" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11911,10 +11899,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F313" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11940,10 +11928,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F314" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11969,10 +11957,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11998,10 +11986,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12027,10 +12015,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F317" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12056,10 +12044,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F318" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12085,10 +12073,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12114,10 +12102,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12143,10 +12131,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12172,10 +12160,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12201,10 +12189,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12230,10 +12218,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12259,10 +12247,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12288,10 +12276,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12317,10 +12305,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12346,10 +12334,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F328" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12375,10 +12363,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F329" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12404,10 +12392,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F330" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12433,10 +12421,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F331" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12462,10 +12450,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F332" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12491,10 +12479,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F333" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12520,10 +12508,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F334" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12549,10 +12537,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F335" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12578,10 +12566,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F336" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12607,10 +12595,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F337" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12636,10 +12624,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F338" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12665,10 +12653,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F339" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12694,10 +12682,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F340" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12723,10 +12711,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F341" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12752,10 +12740,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F342" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12781,10 +12769,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12810,10 +12798,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12839,10 +12827,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F345" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12868,10 +12856,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F346" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12897,10 +12885,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F347" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12926,10 +12914,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F348" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12955,10 +12943,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F349" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12984,10 +12972,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F350" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13013,10 +13001,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F351" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13042,10 +13030,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F352" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13071,10 +13059,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F353" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13100,10 +13088,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F354" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13129,10 +13117,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F355" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13158,10 +13146,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F356" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13187,10 +13175,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F357" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13216,10 +13204,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F358" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13245,10 +13233,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F359" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13274,10 +13262,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F360" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13303,10 +13291,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F361" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13332,10 +13320,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F362" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13361,10 +13349,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F363" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13390,10 +13378,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F364" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13419,10 +13407,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F365" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13448,10 +13436,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F366" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13477,10 +13465,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F367" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13506,10 +13494,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F368" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13535,10 +13523,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F369" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13564,10 +13552,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F370" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13593,10 +13581,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F371" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13622,10 +13610,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F372" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13651,10 +13639,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F373" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13680,10 +13668,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F374" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13709,10 +13697,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F375" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13738,10 +13726,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F376" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13767,10 +13755,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F377" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13796,10 +13784,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F378" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13825,10 +13813,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F379" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13854,10 +13842,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F380" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13883,10 +13871,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F381" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -13912,10 +13900,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F382" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -13941,10 +13929,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F383" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13970,10 +13958,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F384" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13999,10 +13987,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F385" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14028,10 +14016,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F386" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14057,10 +14045,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F387" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14115,10 +14103,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F389" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -14144,10 +14132,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F390" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14173,10 +14161,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F391" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14202,10 +14190,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F392" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14231,10 +14219,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F393" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14260,10 +14248,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F394" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14289,10 +14277,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F395" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14318,10 +14306,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F396" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14347,10 +14335,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F397" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14376,10 +14364,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F398" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14405,10 +14393,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F399" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14434,10 +14422,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F400" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14463,10 +14451,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F401" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -14492,10 +14480,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F402" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -14521,10 +14509,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F403" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -14550,10 +14538,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F404" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14579,10 +14567,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F405" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -14608,10 +14596,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F406" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14637,10 +14625,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F407" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14666,10 +14654,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F408" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -14695,10 +14683,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F409" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14724,10 +14712,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F410" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14753,10 +14741,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F411" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -14782,10 +14770,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F412" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14811,10 +14799,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F413" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -14840,10 +14828,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F414" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -14869,10 +14857,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F415" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G415" t="n">
         <v>3</v>
@@ -14898,10 +14886,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F416" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14927,10 +14915,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F417" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
